--- a/data/policy.xlsx
+++ b/data/policy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\research_module\RM-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A2FB7-E7DD-44D7-8B27-C79034DEA29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA12BD-38F0-4CBF-946E-B2CB7CE0D763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27DD289D-9315-4BC9-BA03-3771593F0D63}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Country</t>
   </si>
@@ -109,50 +109,45 @@
   </si>
   <si>
     <t>Sweden</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,36 +158,25 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -219,28 +203,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B2CC36-3016-4168-A263-430C4A316C5C}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,20 +568,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -625,8 +600,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -644,65 +619,65 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -722,136 +697,136 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -881,8 +856,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
+      <c r="A11" t="s">
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -897,275 +872,563 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
